--- a/Task1/Train.xlsx
+++ b/Task1/Train.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{41C79934-DCDF-402B-BBDF-F56A452548C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD43FED3-46B5-4FFC-BE1E-88803BC78FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Train" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1321,14 +1321,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.42578125" customWidth="1"/>
+    <col min="1" max="1" width="110.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">

--- a/Task1/Train.xlsx
+++ b/Task1/Train.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD43FED3-46B5-4FFC-BE1E-88803BC78FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D1CA83-6A72-4062-BE41-FD94D0419DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
     <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\14_0_2_20170103201038791.jpg.chip.jpg</t>
   </si>
   <si>
-    <t>Unkown</t>
-  </si>
-  <si>
     <t>Smiling</t>
   </si>
   <si>
@@ -52,9 +49,6 @@
     <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\17_0_3_20170104225734512.jpg.chip.jpg</t>
   </si>
   <si>
-    <t>Not Smiling</t>
-  </si>
-  <si>
     <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\1_0_2_20161219151026723.jpg.chip.jpg</t>
   </si>
   <si>
@@ -199,12 +193,6 @@
     <t>Sameed</t>
   </si>
   <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG-20190926-WA0006.jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG-20190926-WA0010.jpeg</t>
-  </si>
-  <si>
     <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG-20210803-WA0001.jpg</t>
   </si>
   <si>
@@ -482,6 +470,18 @@
   </si>
   <si>
     <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\WIN_20230305_13_09_59_Pro.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG-20190926-WA0006.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG-20190926-WA0010.jpg</t>
+  </si>
+  <si>
+    <t>Not smiling</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
 </sst>
 </file>
@@ -1322,9 +1322,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1350,10 +1352,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>14</v>
@@ -1361,13 +1363,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>16</v>
@@ -1375,13 +1377,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>16</v>
@@ -1389,13 +1391,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D5">
         <v>17</v>
@@ -1403,13 +1405,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1417,13 +1419,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1431,13 +1433,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1445,13 +1447,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1459,13 +1461,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1473,13 +1475,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1487,13 +1489,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1501,13 +1503,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>26</v>
@@ -1515,13 +1517,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D14">
         <v>26</v>
@@ -1529,13 +1531,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>26</v>
@@ -1543,13 +1545,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>26</v>
@@ -1557,13 +1559,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>29</v>
@@ -1571,13 +1573,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1585,13 +1587,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1599,13 +1601,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1613,13 +1615,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>30</v>
@@ -1627,13 +1629,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22">
         <v>30</v>
@@ -1641,13 +1643,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23">
         <v>34</v>
@@ -1655,13 +1657,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>35</v>
@@ -1669,13 +1671,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25">
         <v>36</v>
@@ -1683,13 +1685,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D26">
         <v>37</v>
@@ -1697,13 +1699,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -1711,13 +1713,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -1725,13 +1727,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29">
         <v>40</v>
@@ -1739,13 +1741,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <v>41</v>
@@ -1753,13 +1755,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31">
         <v>42</v>
@@ -1767,13 +1769,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32">
         <v>42</v>
@@ -1781,13 +1783,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33">
         <v>47</v>
@@ -1795,13 +1797,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34">
         <v>50</v>
@@ -1809,13 +1811,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35">
         <v>53</v>
@@ -1823,13 +1825,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D36">
         <v>54</v>
@@ -1837,13 +1839,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37">
         <v>55</v>
@@ -1851,13 +1853,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D38">
         <v>56</v>
@@ -1865,13 +1867,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D39">
         <v>59</v>
@@ -1879,13 +1881,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D40">
         <v>5</v>
@@ -1893,13 +1895,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D41">
         <v>63</v>
@@ -1907,13 +1909,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D42">
         <v>65</v>
@@ -1921,13 +1923,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D43">
         <v>66</v>
@@ -1935,13 +1937,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D44">
         <v>68</v>
@@ -1949,13 +1951,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D45">
         <v>75</v>
@@ -1963,13 +1965,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D46">
         <v>76</v>
@@ -1977,13 +1979,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D47">
         <v>7</v>
@@ -1991,13 +1993,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D48">
         <v>85</v>
@@ -2005,13 +2007,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D49">
         <v>85</v>
@@ -2019,13 +2021,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D50">
         <v>8</v>
@@ -2033,27 +2035,41 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D51">
         <v>9</v>
       </c>
     </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52">
+        <v>20</v>
+      </c>
+    </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D53">
         <v>20</v>
@@ -2061,13 +2077,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D54">
         <v>20</v>
@@ -2075,27 +2091,27 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D55">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D56">
         <v>21</v>
@@ -2103,27 +2119,27 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D57">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D58">
         <v>22</v>
@@ -2131,27 +2147,27 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>152</v>
       </c>
       <c r="D59">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D60">
         <v>20</v>
@@ -2159,13 +2175,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D61">
         <v>20</v>
@@ -2173,69 +2189,69 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>152</v>
       </c>
       <c r="D62">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D63">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>152</v>
       </c>
       <c r="D64">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D65">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D66">
         <v>20</v>
@@ -2243,27 +2259,27 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D67">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>152</v>
       </c>
       <c r="D68">
         <v>21</v>
@@ -2271,13 +2287,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D69">
         <v>21</v>
@@ -2285,13 +2301,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D70">
         <v>21</v>
@@ -2299,13 +2315,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D71">
         <v>21</v>
@@ -2313,13 +2329,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D72">
         <v>21</v>
@@ -2327,13 +2343,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D73">
         <v>21</v>
@@ -2341,13 +2357,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D74">
         <v>21</v>
@@ -2355,13 +2371,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D75">
         <v>21</v>
@@ -2369,13 +2385,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D76">
         <v>21</v>
@@ -2383,13 +2399,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D77">
         <v>21</v>
@@ -2397,13 +2413,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D78">
         <v>21</v>
@@ -2411,13 +2427,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>152</v>
       </c>
       <c r="D79">
         <v>21</v>
@@ -2425,55 +2441,55 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D80">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C81" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D81">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C82" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D82">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C83" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D83">
         <v>22</v>
@@ -2481,13 +2497,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D84">
         <v>22</v>
@@ -2495,13 +2511,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C85" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D85">
         <v>22</v>
@@ -2509,13 +2525,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C86" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D86">
         <v>22</v>
@@ -2523,13 +2539,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C87" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D87">
         <v>22</v>
@@ -2537,13 +2553,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C88" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D88">
         <v>22</v>
@@ -2551,13 +2567,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C89" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D89">
         <v>22</v>
@@ -2565,13 +2581,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D90">
         <v>22</v>
@@ -2579,13 +2595,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D91">
         <v>22</v>
@@ -2593,13 +2609,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C92" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D92">
         <v>22</v>
@@ -2607,13 +2623,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D93">
         <v>22</v>
@@ -2621,13 +2637,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D94">
         <v>22</v>
@@ -2635,13 +2651,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D95">
         <v>22</v>
@@ -2649,13 +2665,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D96">
         <v>22</v>
@@ -2663,13 +2679,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D97">
         <v>22</v>
@@ -2677,13 +2693,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D98">
         <v>22</v>
@@ -2691,13 +2707,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D99">
         <v>22</v>
@@ -2705,13 +2721,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D100">
         <v>22</v>
@@ -2719,13 +2735,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D101">
         <v>22</v>
@@ -2733,27 +2749,41 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>152</v>
       </c>
       <c r="D102">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" t="s">
+        <v>105</v>
+      </c>
+      <c r="C103" t="s">
+        <v>152</v>
+      </c>
+      <c r="D103">
         <v>22</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D104">
         <v>22</v>
@@ -2761,13 +2791,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D105">
         <v>22</v>
@@ -2775,13 +2805,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>152</v>
       </c>
       <c r="D106">
         <v>22</v>
@@ -2789,13 +2819,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C107" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D107">
         <v>22</v>
@@ -2803,13 +2833,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C108" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D108">
         <v>22</v>
@@ -2817,13 +2847,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>152</v>
       </c>
       <c r="D109">
         <v>22</v>
@@ -2831,13 +2861,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C110" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D110">
         <v>22</v>
@@ -2845,13 +2875,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C111" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D111">
         <v>22</v>
@@ -2859,13 +2889,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>152</v>
       </c>
       <c r="D112">
         <v>22</v>
@@ -2873,13 +2903,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C113" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D113">
         <v>22</v>
@@ -2887,13 +2917,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C114" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D114">
         <v>22</v>
@@ -2901,13 +2931,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C115" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D115">
         <v>22</v>
@@ -2915,13 +2945,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C116" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D116">
         <v>22</v>
@@ -2929,13 +2959,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C117" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D117">
         <v>22</v>
@@ -2943,13 +2973,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C118" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D118">
         <v>22</v>
@@ -2957,13 +2987,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C119" t="s">
-        <v>6</v>
+        <v>152</v>
       </c>
       <c r="D119">
         <v>22</v>
@@ -2971,13 +3001,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C120" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D120">
         <v>22</v>
@@ -2985,13 +3015,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C121" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D121">
         <v>22</v>
@@ -2999,13 +3029,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D122">
         <v>22</v>
@@ -3013,13 +3043,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C123" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D123">
         <v>22</v>
@@ -3027,13 +3057,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C124" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D124">
         <v>22</v>
@@ -3041,13 +3071,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C125" t="s">
-        <v>6</v>
+        <v>152</v>
       </c>
       <c r="D125">
         <v>22</v>
@@ -3055,13 +3085,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D126">
         <v>22</v>
@@ -3069,13 +3099,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C127" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D127">
         <v>22</v>
@@ -3083,13 +3113,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C128" t="s">
-        <v>6</v>
+        <v>152</v>
       </c>
       <c r="D128">
         <v>22</v>
@@ -3097,13 +3127,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C129" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D129">
         <v>22</v>
@@ -3111,13 +3141,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C130" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D130">
         <v>22</v>
@@ -3125,13 +3155,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C131" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D131">
         <v>22</v>
@@ -3139,13 +3169,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C132" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D132">
         <v>22</v>
@@ -3153,13 +3183,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C133" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D133">
         <v>22</v>
@@ -3167,13 +3197,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C134" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D134">
         <v>22</v>
@@ -3181,13 +3211,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C135" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D135">
         <v>22</v>
@@ -3195,13 +3225,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C136" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D136">
         <v>22</v>
@@ -3209,13 +3239,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C137" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D137">
         <v>22</v>
@@ -3223,13 +3253,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C138" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D138">
         <v>22</v>
@@ -3237,13 +3267,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C139" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D139">
         <v>22</v>
@@ -3251,13 +3281,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C140" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D140">
         <v>22</v>
@@ -3265,13 +3295,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C141" t="s">
-        <v>6</v>
+        <v>152</v>
       </c>
       <c r="D141">
         <v>22</v>
@@ -3279,13 +3309,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C142" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D142">
         <v>22</v>
@@ -3293,13 +3323,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C143" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D143">
         <v>22</v>
@@ -3307,13 +3337,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C144" t="s">
-        <v>6</v>
+        <v>152</v>
       </c>
       <c r="D144">
         <v>22</v>
@@ -3321,13 +3351,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C145" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D145">
         <v>22</v>
@@ -3335,43 +3365,15 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C146" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D146">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>152</v>
-      </c>
-      <c r="B147" t="s">
-        <v>109</v>
-      </c>
-      <c r="C147" t="s">
-        <v>10</v>
-      </c>
-      <c r="D147">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>153</v>
-      </c>
-      <c r="B148" t="s">
-        <v>109</v>
-      </c>
-      <c r="C148" t="s">
-        <v>10</v>
-      </c>
-      <c r="D148">
         <v>22</v>
       </c>
     </row>

--- a/Task1/Train.xlsx
+++ b/Task1/Train.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D1CA83-6A72-4062-BE41-FD94D0419DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F81764D-77DC-43C4-896A-57D11661CC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,319 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="108">
+  <si>
+    <t>Smiling</t>
+  </si>
+  <si>
+    <t>Not smiling</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG-20190108-WA0000.jpg</t>
+  </si>
+  <si>
+    <t>Sameed</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG-20190926-WA0006.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG-20190926-WA0010.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG-20210803-WA0001.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG-20210816-WA0006.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG-20220716-WA0006.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG-20220716-WA0010.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20191009_212612.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20191009_212849.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20210105_153507.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20210207_222330.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20210701_190620.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20210815_143544.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20210815_145214.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20210815_145450.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20210816_130653.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20211223_224749.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20211225_165314.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20220206_115425.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20220206_115715.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20220206_120004.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20220206_180320.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20220207_132559.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20221109_214601.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20221109_214628.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20221109_215953.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20221109_220135.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20221213_103619.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020837.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020840.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020842.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020845.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020855.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020858.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020900.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020907.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020909.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020912.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020914.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020917.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020922.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020924.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020933.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020935.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020939.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020941.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020947.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020949.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020950.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020953.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\14_0_2_20170103201038791.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\16_0_0_20170104012305505.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\16_1_0_20170109213608540.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\17_0_3_20170104225734512.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\1_0_2_20161219151026723.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\1_0_4_20161221193606310.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\1_1_0_20170109190810090.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\1_1_0_20170109190844250.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\1_1_0_20170109191822349.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\1_1_2_20161219204304845.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\1_1_4_20161221192629892.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\26_0_3_20170104230513064.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\26_0_4_20170103224832945.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\26_1_0_20170109134235854.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\26_1_4_20170103225204177.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\29_1_3_20170109141114301.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\2_0_2_20161219190735147.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\2_1_3_20161219225740952.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\2_1_4_20161221202842353.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\30_1_0_20170104184950950.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\30_1_3_20170104232156258.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\34_1_0_20170109004742195.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\35_0_2_20170104191726270.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\36_1_0_20170104171717858.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\37_0_0_20170102233603627.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\3_0_4_20161221193406126.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\3_1_4_20161221192908158.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\40_1_0_20170104205021796.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\41_0_0_20170104205956308.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\42_0_2_20170104205142164.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\42_0_3_20170105175336870.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\47_1_4_20170103234719420.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\50_0_0_20170104210147596.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\53_1_0_20170109142039096.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\54_0_0_20170105163714131.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\55_0_0_20170104212750765.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\56_1_0_20170110122646077.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\59_0_0_20170104210317787.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\5_1_2_20161219194328354.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\63_0_0_20170105180928702.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\65_0_0_20170111205224278.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\66_0_1_20170111171747645.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\68_1_0_20170110131335562.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\75_0_3_20170105180253006.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\76_0_0_20170111201015692.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\7_1_0_20170109200933192.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\85_1_0_20170110182358244.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\85_1_0_20170110183520442.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\8_1_0_20170109202339392.jpg.chip.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\9_0_2_20161219192439379.jpg.chip.jpg</t>
+  </si>
   <si>
     <t>Path</t>
   </si>
@@ -32,456 +344,6 @@
   </si>
   <si>
     <t>Age</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\14_0_2_20170103201038791.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>Smiling</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\16_0_0_20170104012305505.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\16_1_0_20170109213608540.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\17_0_3_20170104225734512.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\1_0_2_20161219151026723.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\1_0_4_20161221193606310.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\1_1_0_20170109190810090.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\1_1_0_20170109190844250.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\1_1_0_20170109191822349.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\1_1_2_20161219204304845.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\1_1_4_20161221192629892.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\26_0_3_20170104230513064.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\26_0_4_20170103224832945.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\26_1_0_20170109134235854.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\26_1_4_20170103225204177.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\29_1_3_20170109141114301.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\2_0_2_20161219190735147.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\2_1_3_20161219225740952.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\2_1_4_20161221202842353.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\30_1_0_20170104184950950.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\30_1_3_20170104232156258.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\34_1_0_20170109004742195.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\35_0_2_20170104191726270.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\36_1_0_20170104171717858.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\37_0_0_20170102233603627.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\3_0_4_20161221193406126.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\3_1_4_20161221192908158.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\40_1_0_20170104205021796.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\41_0_0_20170104205956308.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\42_0_2_20170104205142164.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\42_0_3_20170105175336870.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\47_1_4_20170103234719420.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\50_0_0_20170104210147596.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\53_1_0_20170109142039096.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\54_0_0_20170105163714131.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\55_0_0_20170104212750765.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\56_1_0_20170110122646077.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\59_0_0_20170104210317787.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\5_1_2_20161219194328354.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\63_0_0_20170105180928702.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\65_0_0_20170111205224278.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\66_0_1_20170111171747645.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\68_1_0_20170110131335562.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\75_0_3_20170105180253006.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\76_0_0_20170111201015692.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\7_1_0_20170109200933192.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\85_1_0_20170110182358244.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\85_1_0_20170110183520442.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\8_1_0_20170109202339392.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Unknown\9_0_2_20161219192439379.jpg.chip.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG-20190108-WA0000.jpg</t>
-  </si>
-  <si>
-    <t>Sameed</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG-20210803-WA0001.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG-20210816-WA0006.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG-20220716-WA0006.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG-20220716-WA0010.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20191009_212612.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20191009_212849.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20210105_153507.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20210207_222330.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20210701_190620.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20210815_143544.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20210815_145214.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20210815_145450.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20210816_130653.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20211223_224749.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20211225_165314.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20220206_115425.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20220206_115715.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20220206_120004.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20220206_180320.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20220207_132559.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20221109_214601.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20221109_214628.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20221109_215953.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20221109_220135.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20221213_103619.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020837.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020840.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020842.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020845.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020855.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020858.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020900.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020907.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020909.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020912.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020914.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020917.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020922.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020924.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020933.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020935.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020939.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020941.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020947.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020949.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020950.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG_20230305_020953.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\20211207_175855.jpg</t>
-  </si>
-  <si>
-    <t>Arham</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\IMG_20220406_144153.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\IMG_20220406_144158.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\IMG_20220406_144204.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\IMG_20230124_180954.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\PXL_20230113_113956792.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\PXL_20230121_123447219.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\PXL_20230201_122203946.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\PXL_20230214_135026596.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\PXL_20230303_170315108.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\PXL_20230303_170336606.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\Snapchat-1062849217.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\Snapchat-150545871.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\Snapchat-585486263.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\Snapchat-590156535.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\WhatsApp Image 2023-03-05 at 13.22.00.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\WIN_20230305_09_09_11_Pro.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\WIN_20230305_09_09_13_Pro.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\WIN_20230305_09_09_15_Pro.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\WIN_20230305_09_09_16_Pro.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\WIN_20230305_09_09_17_Pro.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\WIN_20230305_09_09_18_Pro.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\WIN_20230305_09_09_32_Pro.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\WIN_20230305_09_09_34_Pro.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\WIN_20230305_09_09_36_Pro.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\WIN_20230305_09_09_42_Pro.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\WIN_20230305_09_09_43_Pro.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\WIN_20230305_09_09_45_Pro.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\WIN_20230305_09_09_50_Pro.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\WIN_20230305_09_11_02_Pro.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\WIN_20230305_09_11_04_Pro.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\WIN_20230305_09_11_06_Pro.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\WIN_20230305_09_11_08_Pro.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\WIN_20230305_09_11_11_Pro.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\WIN_20230305_09_11_16_Pro.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\WIN_20230305_09_11_18_Pro.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\WIN_20230305_13_09_46_Pro.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\WIN_20230305_13_09_51_Pro.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\WIN_20230305_13_09_52_Pro.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\WIN_20230305_13_09_54_Pro (2).jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\WIN_20230305_13_09_54_Pro.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\WIN_20230305_13_09_56_Pro.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\WIN_20230305_13_09_57_Pro.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\WIN_20230305_13_09_58_Pro.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Arham\Cropped\WIN_20230305_13_09_59_Pro.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG-20190926-WA0006.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\Sameed\Desktop\Machine-Learning-Ass-1\Task1\Sameed\Cropped\IMG-20190926-WA0010.jpg</t>
-  </si>
-  <si>
-    <t>Not smiling</t>
-  </si>
-  <si>
-    <t>Unknown</t>
   </si>
 </sst>
 </file>
@@ -1322,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D146"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,27 +1197,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>14</v>
@@ -1363,13 +1225,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>16</v>
@@ -1377,13 +1239,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>16</v>
@@ -1391,13 +1253,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>17</v>
@@ -1405,13 +1267,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1419,13 +1281,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1433,13 +1295,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1447,13 +1309,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1461,13 +1323,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1475,13 +1337,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1489,13 +1351,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1503,13 +1365,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>26</v>
@@ -1517,13 +1379,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>26</v>
@@ -1531,13 +1393,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>26</v>
@@ -1545,13 +1407,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>26</v>
@@ -1559,13 +1421,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>29</v>
@@ -1573,13 +1435,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1587,13 +1449,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1601,13 +1463,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1615,13 +1477,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>30</v>
@@ -1629,13 +1491,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>30</v>
@@ -1643,13 +1505,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>34</v>
@@ -1657,13 +1519,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>35</v>
@@ -1671,13 +1533,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>36</v>
@@ -1685,13 +1547,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>37</v>
@@ -1699,13 +1561,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -1713,13 +1575,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -1727,13 +1589,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>40</v>
@@ -1741,13 +1603,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>41</v>
@@ -1755,13 +1617,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>42</v>
@@ -1769,13 +1631,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>42</v>
@@ -1783,13 +1645,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>47</v>
@@ -1797,13 +1659,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>50</v>
@@ -1811,13 +1673,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>53</v>
@@ -1825,13 +1687,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>54</v>
@@ -1839,13 +1701,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>55</v>
@@ -1853,13 +1715,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>56</v>
@@ -1867,13 +1729,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="B39" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>59</v>
@@ -1881,13 +1743,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="B40" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>5</v>
@@ -1895,13 +1757,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="B41" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>63</v>
@@ -1909,13 +1771,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>65</v>
@@ -1923,13 +1785,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="B43" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <v>66</v>
@@ -1937,13 +1799,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="B44" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>68</v>
@@ -1951,13 +1813,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="B45" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D45">
         <v>75</v>
@@ -1965,13 +1827,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="B46" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>76</v>
@@ -1979,13 +1841,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="B47" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D47">
         <v>7</v>
@@ -1993,13 +1855,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="B48" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <v>85</v>
@@ -2007,13 +1869,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="B49" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D49">
         <v>85</v>
@@ -2021,13 +1883,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B50" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>8</v>
@@ -2035,13 +1897,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>9</v>
@@ -2049,13 +1911,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D52">
         <v>20</v>
@@ -2063,13 +1925,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>20</v>
@@ -2077,13 +1939,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>151</v>
+        <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>20</v>
@@ -2091,13 +1953,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>21</v>
@@ -2105,13 +1967,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>21</v>
@@ -2119,13 +1981,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>22</v>
@@ -2133,13 +1995,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>22</v>
@@ -2147,13 +2009,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D59">
         <v>20</v>
@@ -2161,13 +2023,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D60">
         <v>20</v>
@@ -2175,13 +2037,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <v>20</v>
@@ -2189,13 +2051,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D62">
         <v>21</v>
@@ -2203,13 +2065,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>20</v>
@@ -2217,13 +2079,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D64">
         <v>21</v>
@@ -2231,13 +2093,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D65">
         <v>20</v>
@@ -2245,13 +2107,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D66">
         <v>20</v>
@@ -2259,13 +2121,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>21</v>
@@ -2273,13 +2135,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D68">
         <v>21</v>
@@ -2287,13 +2149,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D69">
         <v>21</v>
@@ -2301,13 +2163,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="B70" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D70">
         <v>21</v>
@@ -2315,13 +2177,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="B71" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D71">
         <v>21</v>
@@ -2329,13 +2191,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D72">
         <v>21</v>
@@ -2343,13 +2205,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="B73" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D73">
         <v>21</v>
@@ -2357,13 +2219,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="B74" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D74">
         <v>21</v>
@@ -2371,13 +2233,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="B75" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D75">
         <v>21</v>
@@ -2385,13 +2247,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>21</v>
@@ -2399,13 +2261,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="B77" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D77">
         <v>21</v>
@@ -2413,13 +2275,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="B78" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D78">
         <v>21</v>
@@ -2427,13 +2289,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="B79" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D79">
         <v>21</v>
@@ -2441,13 +2303,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="B80" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D80">
         <v>22</v>
@@ -2455,13 +2317,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B81" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D81">
         <v>21</v>
@@ -2469,13 +2331,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="B82" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D82">
         <v>22</v>
@@ -2483,13 +2345,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="B83" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D83">
         <v>22</v>
@@ -2497,13 +2359,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="B84" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D84">
         <v>22</v>
@@ -2511,13 +2373,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="B85" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D85">
         <v>22</v>
@@ -2525,13 +2387,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="B86" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D86">
         <v>22</v>
@@ -2539,13 +2401,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="B87" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D87">
         <v>22</v>
@@ -2553,13 +2415,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="B88" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D88">
         <v>22</v>
@@ -2567,13 +2429,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="B89" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D89">
         <v>22</v>
@@ -2581,13 +2443,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="B90" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D90">
         <v>22</v>
@@ -2595,13 +2457,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="B91" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D91">
         <v>22</v>
@@ -2609,13 +2471,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="B92" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D92">
         <v>22</v>
@@ -2623,13 +2485,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="B93" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D93">
         <v>22</v>
@@ -2637,13 +2499,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="B94" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D94">
         <v>22</v>
@@ -2651,13 +2513,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="B95" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D95">
         <v>22</v>
@@ -2665,13 +2527,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="B96" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D96">
         <v>22</v>
@@ -2679,13 +2541,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="B97" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D97">
         <v>22</v>
@@ -2693,13 +2555,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="B98" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C98" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D98">
         <v>22</v>
@@ -2707,13 +2569,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="B99" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C99" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D99">
         <v>22</v>
@@ -2721,13 +2583,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="B100" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C100" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D100">
         <v>22</v>
@@ -2735,645 +2597,15 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="B101" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C101" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>104</v>
-      </c>
-      <c r="B102" t="s">
-        <v>105</v>
-      </c>
-      <c r="C102" t="s">
-        <v>152</v>
-      </c>
-      <c r="D102">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>106</v>
-      </c>
-      <c r="B103" t="s">
-        <v>105</v>
-      </c>
-      <c r="C103" t="s">
-        <v>152</v>
-      </c>
-      <c r="D103">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>107</v>
-      </c>
-      <c r="B104" t="s">
-        <v>105</v>
-      </c>
-      <c r="C104" t="s">
-        <v>5</v>
-      </c>
-      <c r="D104">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>108</v>
-      </c>
-      <c r="B105" t="s">
-        <v>105</v>
-      </c>
-      <c r="C105" t="s">
-        <v>152</v>
-      </c>
-      <c r="D105">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>109</v>
-      </c>
-      <c r="B106" t="s">
-        <v>105</v>
-      </c>
-      <c r="C106" t="s">
-        <v>152</v>
-      </c>
-      <c r="D106">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>110</v>
-      </c>
-      <c r="B107" t="s">
-        <v>105</v>
-      </c>
-      <c r="C107" t="s">
-        <v>5</v>
-      </c>
-      <c r="D107">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>111</v>
-      </c>
-      <c r="B108" t="s">
-        <v>105</v>
-      </c>
-      <c r="C108" t="s">
-        <v>152</v>
-      </c>
-      <c r="D108">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>112</v>
-      </c>
-      <c r="B109" t="s">
-        <v>105</v>
-      </c>
-      <c r="C109" t="s">
-        <v>152</v>
-      </c>
-      <c r="D109">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>113</v>
-      </c>
-      <c r="B110" t="s">
-        <v>105</v>
-      </c>
-      <c r="C110" t="s">
-        <v>5</v>
-      </c>
-      <c r="D110">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>114</v>
-      </c>
-      <c r="B111" t="s">
-        <v>105</v>
-      </c>
-      <c r="C111" t="s">
-        <v>152</v>
-      </c>
-      <c r="D111">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>115</v>
-      </c>
-      <c r="B112" t="s">
-        <v>105</v>
-      </c>
-      <c r="C112" t="s">
-        <v>152</v>
-      </c>
-      <c r="D112">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>116</v>
-      </c>
-      <c r="B113" t="s">
-        <v>105</v>
-      </c>
-      <c r="C113" t="s">
-        <v>152</v>
-      </c>
-      <c r="D113">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>117</v>
-      </c>
-      <c r="B114" t="s">
-        <v>105</v>
-      </c>
-      <c r="C114" t="s">
-        <v>152</v>
-      </c>
-      <c r="D114">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>118</v>
-      </c>
-      <c r="B115" t="s">
-        <v>105</v>
-      </c>
-      <c r="C115" t="s">
-        <v>152</v>
-      </c>
-      <c r="D115">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>119</v>
-      </c>
-      <c r="B116" t="s">
-        <v>105</v>
-      </c>
-      <c r="C116" t="s">
-        <v>152</v>
-      </c>
-      <c r="D116">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>120</v>
-      </c>
-      <c r="B117" t="s">
-        <v>105</v>
-      </c>
-      <c r="C117" t="s">
-        <v>5</v>
-      </c>
-      <c r="D117">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>121</v>
-      </c>
-      <c r="B118" t="s">
-        <v>105</v>
-      </c>
-      <c r="C118" t="s">
-        <v>152</v>
-      </c>
-      <c r="D118">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>122</v>
-      </c>
-      <c r="B119" t="s">
-        <v>105</v>
-      </c>
-      <c r="C119" t="s">
-        <v>152</v>
-      </c>
-      <c r="D119">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>123</v>
-      </c>
-      <c r="B120" t="s">
-        <v>105</v>
-      </c>
-      <c r="C120" t="s">
-        <v>5</v>
-      </c>
-      <c r="D120">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>124</v>
-      </c>
-      <c r="B121" t="s">
-        <v>105</v>
-      </c>
-      <c r="C121" t="s">
-        <v>5</v>
-      </c>
-      <c r="D121">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>125</v>
-      </c>
-      <c r="B122" t="s">
-        <v>105</v>
-      </c>
-      <c r="C122" t="s">
-        <v>5</v>
-      </c>
-      <c r="D122">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>126</v>
-      </c>
-      <c r="B123" t="s">
-        <v>105</v>
-      </c>
-      <c r="C123" t="s">
-        <v>5</v>
-      </c>
-      <c r="D123">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>127</v>
-      </c>
-      <c r="B124" t="s">
-        <v>105</v>
-      </c>
-      <c r="C124" t="s">
-        <v>5</v>
-      </c>
-      <c r="D124">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>128</v>
-      </c>
-      <c r="B125" t="s">
-        <v>105</v>
-      </c>
-      <c r="C125" t="s">
-        <v>152</v>
-      </c>
-      <c r="D125">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>129</v>
-      </c>
-      <c r="B126" t="s">
-        <v>105</v>
-      </c>
-      <c r="C126" t="s">
-        <v>5</v>
-      </c>
-      <c r="D126">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>130</v>
-      </c>
-      <c r="B127" t="s">
-        <v>105</v>
-      </c>
-      <c r="C127" t="s">
-        <v>152</v>
-      </c>
-      <c r="D127">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>131</v>
-      </c>
-      <c r="B128" t="s">
-        <v>105</v>
-      </c>
-      <c r="C128" t="s">
-        <v>152</v>
-      </c>
-      <c r="D128">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>132</v>
-      </c>
-      <c r="B129" t="s">
-        <v>105</v>
-      </c>
-      <c r="C129" t="s">
-        <v>152</v>
-      </c>
-      <c r="D129">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>133</v>
-      </c>
-      <c r="B130" t="s">
-        <v>105</v>
-      </c>
-      <c r="C130" t="s">
-        <v>152</v>
-      </c>
-      <c r="D130">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>134</v>
-      </c>
-      <c r="B131" t="s">
-        <v>105</v>
-      </c>
-      <c r="C131" t="s">
-        <v>152</v>
-      </c>
-      <c r="D131">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>135</v>
-      </c>
-      <c r="B132" t="s">
-        <v>105</v>
-      </c>
-      <c r="C132" t="s">
-        <v>152</v>
-      </c>
-      <c r="D132">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>136</v>
-      </c>
-      <c r="B133" t="s">
-        <v>105</v>
-      </c>
-      <c r="C133" t="s">
-        <v>152</v>
-      </c>
-      <c r="D133">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>137</v>
-      </c>
-      <c r="B134" t="s">
-        <v>105</v>
-      </c>
-      <c r="C134" t="s">
-        <v>152</v>
-      </c>
-      <c r="D134">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>138</v>
-      </c>
-      <c r="B135" t="s">
-        <v>105</v>
-      </c>
-      <c r="C135" t="s">
-        <v>152</v>
-      </c>
-      <c r="D135">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>139</v>
-      </c>
-      <c r="B136" t="s">
-        <v>105</v>
-      </c>
-      <c r="C136" t="s">
-        <v>152</v>
-      </c>
-      <c r="D136">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>140</v>
-      </c>
-      <c r="B137" t="s">
-        <v>105</v>
-      </c>
-      <c r="C137" t="s">
-        <v>152</v>
-      </c>
-      <c r="D137">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>141</v>
-      </c>
-      <c r="B138" t="s">
-        <v>105</v>
-      </c>
-      <c r="C138" t="s">
-        <v>152</v>
-      </c>
-      <c r="D138">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>142</v>
-      </c>
-      <c r="B139" t="s">
-        <v>105</v>
-      </c>
-      <c r="C139" t="s">
-        <v>5</v>
-      </c>
-      <c r="D139">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>143</v>
-      </c>
-      <c r="B140" t="s">
-        <v>105</v>
-      </c>
-      <c r="C140" t="s">
-        <v>5</v>
-      </c>
-      <c r="D140">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>144</v>
-      </c>
-      <c r="B141" t="s">
-        <v>105</v>
-      </c>
-      <c r="C141" t="s">
-        <v>152</v>
-      </c>
-      <c r="D141">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>145</v>
-      </c>
-      <c r="B142" t="s">
-        <v>105</v>
-      </c>
-      <c r="C142" t="s">
-        <v>5</v>
-      </c>
-      <c r="D142">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>146</v>
-      </c>
-      <c r="B143" t="s">
-        <v>105</v>
-      </c>
-      <c r="C143" t="s">
-        <v>152</v>
-      </c>
-      <c r="D143">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>147</v>
-      </c>
-      <c r="B144" t="s">
-        <v>105</v>
-      </c>
-      <c r="C144" t="s">
-        <v>152</v>
-      </c>
-      <c r="D144">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>148</v>
-      </c>
-      <c r="B145" t="s">
-        <v>105</v>
-      </c>
-      <c r="C145" t="s">
-        <v>152</v>
-      </c>
-      <c r="D145">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>149</v>
-      </c>
-      <c r="B146" t="s">
-        <v>105</v>
-      </c>
-      <c r="C146" t="s">
-        <v>152</v>
-      </c>
-      <c r="D146">
         <v>22</v>
       </c>
     </row>
